--- a/Aufgaben_Kay/Test 2/Testfälle.xlsx
+++ b/Aufgaben_Kay/Test 2/Testfälle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/UeK307/Aufgaben_Kay/Test 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8253B7-DEB8-456C-9A83-04E3DFC8FA80}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657347B3-77A7-204B-8FFB-F5A760641CB6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="25396" windowHeight="15346" xr2:uid="{6AB5FC3A-D1D6-4267-BEC4-8F10F8A4D046}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{6AB5FC3A-D1D6-4267-BEC4-8F10F8A4D046}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
   <si>
     <t>Was wird getestet?</t>
   </si>
@@ -54,152 +54,100 @@
     <t>optisch</t>
   </si>
   <si>
-    <t>Das Modal um einen Datensatz zu erstellen geht auf.</t>
-  </si>
-  <si>
-    <t>Erstellen-Modal wird beim klick auf + Button geöffnet.</t>
-  </si>
-  <si>
-    <t>Bearbeiten-Modal wird beim klick auf das dazugehörige Icon geöffnet.</t>
-  </si>
-  <si>
-    <t>Das korrekte Modal wird mit den richtigen Daten geöffnet.</t>
-  </si>
-  <si>
-    <t>update</t>
-  </si>
-  <si>
-    <t>insert</t>
-  </si>
-  <si>
-    <t>delete</t>
-  </si>
-  <si>
-    <t>Bestehender Datensatz kann angepasst werden.</t>
-  </si>
-  <si>
-    <t>Neuer Datensatz kann hinzugefügt werden.</t>
-  </si>
-  <si>
-    <t>Ein Datensatz kann gelöscht werden.</t>
-  </si>
-  <si>
-    <t>optisch (DB und HTML)</t>
-  </si>
-  <si>
-    <t>Löschen-Modal wird beim klick auf das Löschen Icon geöffnet.</t>
-  </si>
-  <si>
-    <t>Das Modal um einen Datensatz zu löschen erscheint.</t>
-  </si>
-  <si>
-    <t>Navigation über die Seiten.</t>
-  </si>
-  <si>
-    <t>HTML, CSS</t>
-  </si>
-  <si>
-    <t>Usability (Hover)</t>
-  </si>
-  <si>
-    <t>Beim Hover über wichtige/klickbare Elemente, wird dies ersichtlich.</t>
-  </si>
-  <si>
-    <t>Toasts</t>
-  </si>
-  <si>
-    <t>JS, PHP</t>
-  </si>
-  <si>
-    <t>Rote/Grüne Nachrichten geben dem User Feedback.</t>
-  </si>
-  <si>
-    <t>Clean-Code</t>
-  </si>
-  <si>
     <t>JS</t>
   </si>
   <si>
     <t>Keine console.logs im Code.</t>
   </si>
   <si>
-    <t>Im Code suchen</t>
-  </si>
-  <si>
-    <t>Muss das Pflichtfeld App Name max. 255 Zeichen haben?</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
-    <t>Wird ein App Name zwingend verlangt?</t>
-  </si>
-  <si>
-    <t>Wird ein Kaufdatum zwingend verlangt?</t>
-  </si>
-  <si>
-    <t>Es können keine Falscheingaben gemacht werden, da Standardmässig das heutige Datum drin ist. Zudem wird das Datum mit einem Datepicker festgelegt.</t>
-  </si>
-  <si>
-    <t>Muss das Pflichtfeld App Name min. 1 Zeichen haben?</t>
-  </si>
-  <si>
-    <t>Muss das Pflichtfeld Kaufdatum min. 1 Zeichen haben?</t>
-  </si>
-  <si>
-    <t>User Feedback im Modal &amp; Validierung in PHP</t>
-  </si>
-  <si>
-    <t>Optische Erkennung wenn keine Eingabe getätigt wurde.</t>
-  </si>
-  <si>
-    <t>i.O.</t>
-  </si>
-  <si>
-    <t>Lange Zeichen eingeben</t>
-  </si>
-  <si>
-    <t>Rote Linie</t>
-  </si>
-  <si>
-    <t>App Name nicht angeben</t>
-  </si>
-  <si>
-    <t>Ein Toast weist auf den Fehler hin. (Beim nicht Aufüllen)</t>
-  </si>
-  <si>
-    <t>Datepicker löst das Problem komplett.</t>
-  </si>
-  <si>
-    <t>Muss das Pflichtfeld Kaufdatum max. 255 Zeichen haben?</t>
-  </si>
-  <si>
-    <t>Auch dies sollte dank des Datepickers nicht möglich sein.</t>
-  </si>
-  <si>
-    <t>Datepicker verwenden.</t>
-  </si>
-  <si>
-    <t>Das heutige Datum ist standardmässig dirn. Somit hat es immer ein Datum.</t>
-  </si>
-  <si>
-    <t>Beim nichtausfüllen wird das heutige Datum in der Datenbank abgespreichert.</t>
-  </si>
-  <si>
-    <t>hauptsächlich JS</t>
-  </si>
-  <si>
     <t>JS &amp; PHP</t>
   </si>
   <si>
     <t>Der Status und die Checkbox hängen zusammen.</t>
   </si>
   <si>
-    <t>Navigation ist sichtbar und funktioniert auch im Mobile (Button und Logo)</t>
-  </si>
-  <si>
-    <t>Anforderung nicht komplett erfüllt. Die Checkbox ändert sich beim ändern der Zahl. Problem -&gt; Beim Klick auf die Checkbox ändert sich die Zahl noch nicht. -&gt; Eigentlich eine simple click Methode in JS
-Zeile 65 in list.js</t>
+    <t>Die Pflichtfelder müssen ausgefüllt sein, sonst darf das Formular nicht gespeichert werden</t>
+  </si>
+  <si>
+    <t>Mit JS wird überprüft ob die Felder != '' sind und wenn sie leer sind wird der AJAX-Befehl nicht abgeschickt</t>
+  </si>
+  <si>
+    <t>Man wird benachrichtigt, wenn man es nicht gemacht hat</t>
+  </si>
+  <si>
+    <t>Wenn ich das "Neu"-Formular aufrufe, sollten die zwei Defaultwert schon da stehen</t>
+  </si>
+  <si>
+    <t>Der wert wird in HTML in das Value des Inputfields gesetzt</t>
+  </si>
+  <si>
+    <t>Werte die beim Aufrufen schon dort stehen</t>
+  </si>
+  <si>
+    <t>Der timestamp soll richtig gesetzt werden</t>
+  </si>
+  <si>
+    <t>Ich erstelle beim Post im PHP ein timestamp der in die DB eingefügt wird</t>
+  </si>
+  <si>
+    <t>Es wird in der DB und auf meiner Seite richtig angezeigt.</t>
+  </si>
+  <si>
+    <t>keine logs in der konsole</t>
+  </si>
+  <si>
+    <t>im Code und bei der ausführung</t>
+  </si>
+  <si>
+    <t>Man kann einen neuen Artikel erstellen</t>
+  </si>
+  <si>
+    <t>mit JS, PHP und SQL</t>
+  </si>
+  <si>
+    <t>Ich habe ein Button mit dem ich ein neuen artikel erstellen kann</t>
+  </si>
+  <si>
+    <t>Ich kann ein artikel bearbeiten</t>
+  </si>
+  <si>
+    <t>Ich kann bei einem Datensatz auf edit klicken und dann kann ich ihn bearbeiten</t>
+  </si>
+  <si>
+    <t>ich kann ein artikel löschen</t>
+  </si>
+  <si>
+    <t>Ich kann bei einem Datensatz auf löschen klicken und dann löscht es diesen Datensatz</t>
+  </si>
+  <si>
+    <t>beim bearbeiten wird der timestamp überschrieben</t>
+  </si>
+  <si>
+    <t>php</t>
+  </si>
+  <si>
+    <t>wenn ich im php updaten möchte, wird zuerst der aktuelle timestamp gesetzt und den alten danach überschrieben</t>
+  </si>
+  <si>
+    <t>ich kann nach dem timestamp sortieren</t>
+  </si>
+  <si>
+    <t>mit JS, HTML</t>
+  </si>
+  <si>
+    <t>ich kann auf den Tabellen-head klicken und dann sortiert es diese spalte</t>
+  </si>
+  <si>
+    <t>Tenn ich etwas mache kommen stats-Toasts</t>
+  </si>
+  <si>
+    <t>wenn ich etwas mache wie z.B. das erstellen kommt ein toast ob es gespeichert wurde,</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
 </sst>
 </file>
@@ -569,22 +517,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E288D3-C6CE-4607-AE20-22CDB17A2D02}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="56.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.9296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.53125" customWidth="1"/>
+    <col min="1" max="1" width="56.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -601,294 +549,198 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+      <c r="B10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="57" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" t="s">
-        <v>39</v>
-      </c>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C15" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
